--- a/testcases/sprint12/资产管理_maxun.xlsx
+++ b/testcases/sprint12/资产管理_maxun.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCodes\sr_pro\starriver_pro_web\testcases\sprint12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="10800" activeTab="1"/>
   </bookViews>
@@ -23,13 +18,13 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="128">
   <si>
     <t>测试结果</t>
   </si>
@@ -1267,14 +1262,18 @@
   </si>
   <si>
     <t>v0.11.0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#21486</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,18 +1580,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[资产管理_maxun.xlsx]资产管理!数据透视表3</c:name>
     <c:fmtId val="0"/>
@@ -1623,6 +1612,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1648,13 +1638,8 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1707,13 +1692,8 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1722,7 +1702,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6">
+            <a:schemeClr val="accent5">
               <a:alpha val="85000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -1741,6 +1721,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1766,13 +1747,8 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1825,13 +1801,8 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1865,7 +1836,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.97150997150998E-2"/>
+          <c:x val="9.9715099715099842E-2"/>
           <c:y val="4.5454545454545463E-2"/>
           <c:w val="0.79520918859501533"/>
           <c:h val="0.83909878310665709"/>
@@ -1874,7 +1845,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1905,7 +1875,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1932,31 +1901,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1984,7 +1929,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-072F-4FF0-B1B2-5230BD674595}"/>
             </c:ext>
@@ -2020,7 +1965,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2047,31 +1991,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2102,35 +2022,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-50B6-4025-B2CA-A1B1A2A8CCEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="68596864"/>
-        <c:axId val="68598400"/>
+        <c:axId val="111345664"/>
+        <c:axId val="111347200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68596864"/>
+        <c:axId val="111345664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2165,15 +2077,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68598400"/>
+        <c:crossAx val="111347200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68598400"/>
+        <c:axId val="111347200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,9 +2118,8 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68596864"/>
+        <c:crossAx val="111345664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2223,7 +2133,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1">
@@ -2259,7 +2169,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2303,10 +2212,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2946,7 +2855,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2877,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="数据源 "/>
@@ -3599,7 +3508,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J2:M6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -3983,14 +3892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
@@ -3999,7 +3908,7 @@
     <col min="10" max="10" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
@@ -4017,7 +3926,7 @@
       </c>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4034,7 +3943,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
@@ -4054,7 +3963,7 @@
         <v>43189</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -4080,7 +3989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="8">
         <v>43187</v>
       </c>
@@ -4100,7 +4009,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <v>43187</v>
       </c>
@@ -4114,13 +4023,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="8"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4129,43 +4038,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4184,14 +4093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -4215,7 +4124,7 @@
     <col min="21" max="21" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -4238,7 +4147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
@@ -4262,7 +4171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
@@ -4292,7 +4201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
@@ -4320,7 +4229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="14" t="s">
         <v>37</v>
       </c>
@@ -4350,7 +4259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
@@ -4380,7 +4289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
@@ -4402,7 +4311,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
@@ -4420,7 +4329,7 @@
       </c>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="14" t="s">
         <v>60</v>
       </c>
@@ -4438,7 +4347,7 @@
       </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="14" t="s">
         <v>61</v>
       </c>
@@ -4456,7 +4365,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="14" t="s">
         <v>95</v>
       </c>
@@ -4474,7 +4383,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="14" t="s">
         <v>96</v>
       </c>
@@ -4492,7 +4401,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="14" t="s">
         <v>97</v>
       </c>
@@ -4510,7 +4419,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="14" t="s">
         <v>98</v>
       </c>
@@ -4528,7 +4437,7 @@
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="14" t="s">
         <v>99</v>
       </c>
@@ -4546,7 +4455,7 @@
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>100</v>
       </c>
@@ -4564,7 +4473,7 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>41</v>
       </c>
@@ -4582,7 +4491,7 @@
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>42</v>
       </c>
@@ -4600,7 +4509,7 @@
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>43</v>
       </c>
@@ -4618,7 +4527,7 @@
       </c>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>44</v>
       </c>
@@ -4636,7 +4545,7 @@
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
@@ -4654,7 +4563,7 @@
       </c>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -4672,7 +4581,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="14" t="s">
         <v>47</v>
       </c>
@@ -4688,11 +4597,14 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
       <c r="G23" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>48</v>
       </c>
@@ -4710,7 +4622,7 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>101</v>
       </c>
@@ -4728,7 +4640,7 @@
       </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>109</v>
       </c>
@@ -4746,7 +4658,7 @@
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>110</v>
       </c>
@@ -4764,7 +4676,7 @@
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>111</v>
       </c>
@@ -4782,7 +4694,7 @@
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>112</v>
       </c>
@@ -4800,7 +4712,7 @@
       </c>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>113</v>
       </c>
@@ -4818,7 +4730,7 @@
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
         <v>114</v>
       </c>
@@ -4836,7 +4748,7 @@
       </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>115</v>
       </c>
@@ -4852,11 +4764,14 @@
       <c r="E32" t="s">
         <v>7</v>
       </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
       <c r="G32" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>116</v>
       </c>
@@ -4874,7 +4789,7 @@
       </c>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>117</v>
       </c>
@@ -4892,7 +4807,7 @@
       </c>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>118</v>
       </c>
@@ -4910,213 +4825,213 @@
       </c>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>

--- a/testcases/sprint12/资产管理_maxun.xlsx
+++ b/testcases/sprint12/资产管理_maxun.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1293,6 +1293,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1301,6 +1302,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1308,6 +1310,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1315,6 +1318,7 @@
       <sz val="14"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1323,12 +1327,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1836,7 +1842,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.9715099715099842E-2"/>
+          <c:x val="9.971509971509987E-2"/>
           <c:y val="4.5454545454545463E-2"/>
           <c:w val="0.79520918859501533"/>
           <c:h val="0.83909878310665709"/>
@@ -2032,11 +2038,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="100"/>
-        <c:axId val="111345664"/>
-        <c:axId val="111347200"/>
+        <c:axId val="102445824"/>
+        <c:axId val="102447360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111345664"/>
+        <c:axId val="102445824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,14 +2083,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111347200"/>
+        <c:crossAx val="102447360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111347200"/>
+        <c:axId val="102447360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2125,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="111345664"/>
+        <c:crossAx val="102445824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2212,7 +2218,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -2855,7 +2861,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3514,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J2:M6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -4097,7 +4103,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4600,7 +4606,7 @@
       <c r="F23" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="3" t="s">
         <v>81</v>
       </c>
     </row>
